--- a/data/Energia_Primaria_Lisboa.xlsx
+++ b/data/Energia_Primaria_Lisboa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F567FC-7625-4442-954A-2C6431050AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CE77F-8CC3-4070-A445-8B4C4ED6C4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{B3B15593-21DF-4EF4-95BA-6E13FFBB7A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3B15593-21DF-4EF4-95BA-6E13FFBB7A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Energia_Primaria" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
         <v>30615.210912099999</v>
       </c>
       <c r="G9" s="5">
-        <v>378091.49144016969</v>
+        <v>378091.86347555893</v>
       </c>
       <c r="H9" s="5">
         <v>38650.763696000009</v>
@@ -917,7 +917,7 @@
         <v>20919.464090720001</v>
       </c>
       <c r="G19" s="6">
-        <v>354171.1623164026</v>
+        <v>354171.50838907313</v>
       </c>
       <c r="H19" s="6">
         <v>39273.658325000011</v>
@@ -1047,7 +1047,7 @@
         <v>15329.041958640002</v>
       </c>
       <c r="G24" s="6">
-        <v>350683.14054184273</v>
+        <v>350683.44765434955</v>
       </c>
       <c r="H24" s="6">
         <v>43156.430016000006</v>
@@ -1177,7 +1177,7 @@
         <v>10114.29555832</v>
       </c>
       <c r="G29" s="6">
-        <v>361684.23305741593</v>
+        <v>361684.42839035933</v>
       </c>
       <c r="H29" s="6">
         <v>46459.937735999985</v>
@@ -1307,7 +1307,7 @@
         <v>26.352798199999999</v>
       </c>
       <c r="G34" s="6">
-        <v>344586.37633554853</v>
+        <v>344586.54493832408</v>
       </c>
       <c r="H34" s="6">
         <v>42979.015800000016</v>
@@ -1359,7 +1359,7 @@
         <v>64.406376319999993</v>
       </c>
       <c r="G36" s="6">
-        <v>1762.0252549510528</v>
+        <v>1918.3988340409351</v>
       </c>
       <c r="H36" s="6">
         <v>135.7808</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6">
-        <v>15561.020389513491</v>
+        <v>16942.006527913905</v>
       </c>
       <c r="H37" s="6">
         <v>29870.510399999999</v>
@@ -1411,7 +1411,7 @@
         <v>576.84197900000004</v>
       </c>
       <c r="G38" s="6">
-        <v>20612.904306865144</v>
+        <v>22442.227475102762</v>
       </c>
       <c r="H38" s="6">
         <v>2384.752</v>
@@ -1437,7 +1437,7 @@
         <v>172.984724</v>
       </c>
       <c r="G39" s="6">
-        <v>341551.16689943994</v>
+        <v>371858.81673632929</v>
       </c>
       <c r="H39" s="6">
         <v>40899.943200000023</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="6">
-        <v>110744.38534045068</v>
+        <v>120572.562235836</v>
       </c>
       <c r="H40" s="6">
         <v>43025.156799999997</v>
@@ -1567,7 +1567,7 @@
         <v>129.189188</v>
       </c>
       <c r="G44" s="6">
-        <v>376095.49826558318</v>
+        <v>376095.50883206091</v>
       </c>
       <c r="H44" s="6">
         <v>40421.249000000003</v>
@@ -1697,7 +1697,7 @@
         <v>11.463844600000002</v>
       </c>
       <c r="G49" s="6">
-        <v>366767.91381124925</v>
+        <v>366767.9169788835</v>
       </c>
       <c r="H49" s="6">
         <v>40240.337500000001</v>
@@ -1827,7 +1827,7 @@
         <v>15.250094799999999</v>
       </c>
       <c r="G54" s="6">
-        <v>385884.79414768337</v>
+        <v>385884.80354058166</v>
       </c>
       <c r="H54" s="6">
         <v>42240.355000000018</v>
